--- a/timesheet_info.xlsx
+++ b/timesheet_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,7 +605,7 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>09:48:50 - 17:48:51</t>
+          <t>09:48:50 - 17:48:51; 09:51:21 - 09:51:23; 21:50:38 - 21:50:40</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -636,7 +636,11 @@
       <c r="AE2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>jkyhkjh</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -646,11 +650,15 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>09:51:21 - 09:51:23</t>
+          <t>09:51:31 - 12:51:34; 09:51:42 - 13:51:43</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>09:55:53 - 09:55:54</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -672,125 +680,6 @@
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>21:50:38 - 21:50:40</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>jkyhkjh</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>09:51:31 - 12:51:34</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>09:55:53 - 09:55:54</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>09:51:42 - 13:51:43</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
